--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Hanai\DotEater\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B5FFA-13A6-4645-8B03-744E283F5EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C987B98C-EA3A-4A24-AF6F-0283327F3B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2676" windowWidth="17280" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -412,10 +412,49 @@
       <c r="Q1">
         <v>1</v>
       </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+      <c r="AD1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -463,63 +502,141 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -530,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -560,54 +677,93 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -622,15 +778,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -648,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -666,74 +861,520 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:Q7">
+  <conditionalFormatting sqref="A1:AD11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>1</formula>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C987B98C-EA3A-4A24-AF6F-0283327F3B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B72C4-DEB1-41DA-B8D4-CA4E29164F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2676" windowWidth="17280" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9">
         <v>0</v>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56B72C4-DEB1-41DA-B8D4-CA4E29164F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A243C8-33B0-4AF3-955D-8A45AA915906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -451,8 +451,53 @@
       <c r="AD1">
         <v>1</v>
       </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>1</v>
+      </c>
+      <c r="AG1">
+        <v>1</v>
+      </c>
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1">
+        <v>1</v>
+      </c>
+      <c r="AJ1">
+        <v>1</v>
+      </c>
+      <c r="AK1">
+        <v>1</v>
+      </c>
+      <c r="AL1">
+        <v>1</v>
+      </c>
+      <c r="AM1">
+        <v>1</v>
+      </c>
+      <c r="AN1">
+        <v>1</v>
+      </c>
+      <c r="AO1">
+        <v>1</v>
+      </c>
+      <c r="AP1">
+        <v>1</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AR1">
+        <v>1</v>
+      </c>
+      <c r="AS1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,19 +535,19 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -511,25 +556,25 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -541,10 +586,55 @@
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -582,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -606,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -633,10 +723,55 @@
         <v>0</v>
       </c>
       <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -674,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -701,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -725,10 +860,55 @@
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -739,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -766,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -796,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -817,10 +997,55 @@
         <v>0</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -828,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -846,31 +1071,31 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -911,8 +1136,53 @@
       <c r="AD6">
         <v>1</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -950,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -998,13 +1268,58 @@
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>1</v>
       </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1042,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1087,16 +1402,61 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1104,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1122,31 +1482,31 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1176,19 +1536,64 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1226,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1265,22 +1670,67 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1369,12 +1819,57 @@
         <v>1</v>
       </c>
       <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AD11">
+  <conditionalFormatting sqref="A1:AS11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>1</formula>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A243C8-33B0-4AF3-955D-8A45AA915906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0713B-36E2-483B-85DC-936D38EB4718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,7 +355,7 @@
   <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <v>1</v>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\Sweets Avoid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0713B-36E2-483B-85DC-936D38EB4718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D916D-B019-4AEC-A627-FBC4B922E509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2436" windowWidth="17280" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:BU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -496,8 +496,92 @@
       <c r="AS1">
         <v>1</v>
       </c>
+      <c r="AT1">
+        <v>1</v>
+      </c>
+      <c r="AU1">
+        <v>1</v>
+      </c>
+      <c r="AV1">
+        <v>1</v>
+      </c>
+      <c r="AW1">
+        <v>1</v>
+      </c>
+      <c r="AX1">
+        <v>1</v>
+      </c>
+      <c r="AY1">
+        <v>1</v>
+      </c>
+      <c r="AZ1">
+        <v>1</v>
+      </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BB1">
+        <v>1</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
+      <c r="BD1">
+        <v>1</v>
+      </c>
+      <c r="BE1">
+        <v>1</v>
+      </c>
+      <c r="BF1">
+        <v>1</v>
+      </c>
+      <c r="BG1">
+        <v>1</v>
+      </c>
+      <c r="BH1">
+        <v>1</v>
+      </c>
+      <c r="BI1">
+        <v>1</v>
+      </c>
+      <c r="BJ1">
+        <v>1</v>
+      </c>
+      <c r="BK1">
+        <v>1</v>
+      </c>
+      <c r="BL1">
+        <v>1</v>
+      </c>
+      <c r="BM1">
+        <v>1</v>
+      </c>
+      <c r="BN1">
+        <v>1</v>
+      </c>
+      <c r="BO1">
+        <v>1</v>
+      </c>
+      <c r="BP1">
+        <v>1</v>
+      </c>
+      <c r="BQ1">
+        <v>1</v>
+      </c>
+      <c r="BR1">
+        <v>1</v>
+      </c>
+      <c r="BS1">
+        <v>1</v>
+      </c>
+      <c r="BT1">
+        <v>1</v>
+      </c>
+      <c r="BU1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,64 +619,64 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
       <c r="X2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>1</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -631,10 +715,94 @@
         <v>0</v>
       </c>
       <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -672,61 +840,61 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>3</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -768,10 +936,94 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>5</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>5</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -809,40 +1061,40 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -854,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -878,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -905,10 +1157,94 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>5</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -946,31 +1282,31 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -994,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1036,16 +1372,100 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR5">
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1053,684 +1473,1104 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>5</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>5</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>5</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>0</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>5</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>6</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
         <v>5</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
         <v>5</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>1</v>
-      </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10">
-        <v>1</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1864,12 +2704,96 @@
         <v>1</v>
       </c>
       <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AS11">
+  <conditionalFormatting sqref="A1:BU11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>1</formula>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0713B-36E2-483B-85DC-936D38EB4718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70481C36-E0F5-458E-9908-D0029DA823D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2508" yWindow="2436" windowWidth="17280" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,15 +352,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -496,8 +496,38 @@
       <c r="AS1">
         <v>1</v>
       </c>
+      <c r="AT1">
+        <v>1</v>
+      </c>
+      <c r="AU1">
+        <v>1</v>
+      </c>
+      <c r="AV1">
+        <v>1</v>
+      </c>
+      <c r="AW1">
+        <v>1</v>
+      </c>
+      <c r="AX1">
+        <v>1</v>
+      </c>
+      <c r="AY1">
+        <v>1</v>
+      </c>
+      <c r="AZ1">
+        <v>1</v>
+      </c>
+      <c r="BA1">
+        <v>1</v>
+      </c>
+      <c r="BB1">
+        <v>1</v>
+      </c>
+      <c r="BC1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,50 +565,50 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
       <c r="AB2">
         <v>0</v>
       </c>
@@ -586,25 +616,25 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
         <v>0</v>
@@ -631,10 +661,40 @@
         <v>0</v>
       </c>
       <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -672,50 +732,50 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>3</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
       <c r="AB3">
         <v>0</v>
       </c>
@@ -726,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -768,10 +828,40 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -809,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -836,22 +926,22 @@
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -866,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -905,10 +995,40 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -946,49 +1066,49 @@
         <v>0</v>
       </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1006,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1042,10 +1162,40 @@
         <v>0</v>
       </c>
       <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1053,107 +1203,107 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="V6">
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="W6">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
@@ -1164,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
         <v>0</v>
@@ -1173,16 +1323,46 @@
         <v>0</v>
       </c>
       <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
         <v>5</v>
       </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1220,19 +1400,19 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1250,31 +1430,31 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1298,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
         <v>0</v>
@@ -1316,10 +1496,40 @@
         <v>0</v>
       </c>
       <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1357,64 +1567,64 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>3</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1432,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -1453,10 +1663,40 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1494,44 +1734,44 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
         <v>0</v>
       </c>
@@ -1539,22 +1779,22 @@
         <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1566,34 +1806,64 @@
         <v>0</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1631,106 +1901,136 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
         <v>4</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
       <c r="AA10">
         <v>1</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1864,12 +2164,42 @@
         <v>1</v>
       </c>
       <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AS11">
+  <conditionalFormatting sqref="A1:BC11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>1</formula>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Kawashima\DotEater\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A08\gameprograming2\Sweets Avoid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70481C36-E0F5-458E-9908-D0029DA823D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD88E627-D8BA-46CA-81E5-545FA0C5BF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2436" windowWidth="17280" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -355,7 +355,7 @@
   <dimension ref="A1:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>0</v>

--- a/data/stage00.xlsx
+++ b/data/stage00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Assignment\Kawashima\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BFA627-E908-40F7-93EF-A84883856883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D2EFC0-FFAF-4118-B69E-F3C47A62441F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8CE57FDB-C73F-4470-B143-1F9CF5382724}"/>
   </bookViews>
@@ -656,56 +656,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -751,105 +702,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1186,7 +1039,7 @@
   <dimension ref="A1:BU11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3625,26 +3478,26 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:BU11">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
-      <formula>6</formula>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
